--- a/xlsx/中共中央党校_intext.xlsx
+++ b/xlsx/中共中央党校_intext.xlsx
@@ -29,13 +29,13 @@
     <t>中央党校 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_智庫_中共中央党校</t>
+    <t>政策_政策_智库_中共中央党校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立政治大學</t>
+    <t>国立政治大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E5%B8%8C</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E5%AE%89%E6%95%B4%E9%A2%A8</t>
   </si>
   <si>
-    <t>延安整風</t>
+    <t>延安整风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%83%E5%A4%A7</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>禹縣</t>
+    <t>禹县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E8%91%9B%E5%8E%BF</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E9%BB%A8%E5%8F%B2</t>
   </si>
   <si>
-    <t>中共黨史</t>
+    <t>中共党史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E4%B8%9A%E5%8D%95%E4%BD%8D</t>
@@ -1151,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E6%88%B0%E7%B7%9A</t>
   </si>
   <si>
-    <t>統一戰線</t>
+    <t>统一战线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%88%98%E4%BA%89</t>
@@ -1169,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E9%A2%A8%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>整風運動</t>
+    <t>整风运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89</t>
@@ -1259,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%B8%E8%91%97%E7%9F%B3%E9%A0%AD%E9%81%8E%E6%B2%B3</t>
   </si>
   <si>
-    <t>摸著石頭過河</t>
+    <t>摸着石头过河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%AA%E6%9C%89%E5%88%A9%E4%BA%8E</t>
@@ -1391,19 +1391,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B9%E9%83%A8%E8%81%B7%E5%8B%99%E5%90%8D%E7%A8%B1%E8%A1%A8%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>幹部職務名稱表制度</t>
+    <t>干部职务名称表制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8%E9%BB%A8%E6%97%97%E9%BB%A8%E5%BE%BD</t>
   </si>
   <si>
-    <t>中國共產黨黨旗黨徽</t>
+    <t>中国共产党党旗党徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8%E9%BB%A8%E5%A0%B1%E9%BB%A8%E5%88%8A</t>
   </si>
   <si>
-    <t>中國共產黨黨報黨刊</t>
+    <t>中国共产党党报党刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A%E7%BA%AA%E5%BE%8B%E6%A3%80%E6%9F%A5%E6%9C%BA%E5%85%B3</t>
@@ -1469,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%93%A1%E6%9C%83%E5%89%AF%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>中國共產黨中央委員會副主席</t>
+    <t>中国共产党中央委员会副主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A%E4%B8%AD%E5%A4%AE%E6%94%BF%E6%B2%BB%E5%B1%80%E5%B8%B8%E5%8A%A1%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1757,7 +1757,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%97%E6%B5%B7%E4%B8%9A%E4%BD%99%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>中南海业余大学</t>
+    <t>中南海业馀大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%91%98%E4%BC%9A%E5%80%99%E8%A1%A5%E5%A7%94%E5%91%98</t>
@@ -1925,7 +1925,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8%E5%8F%B0%E7%81%A3%E7%9C%81%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>中國共產黨台灣省工作委員會</t>
+    <t>中国共产党台湾省工作委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E5%A7%94</t>
@@ -1997,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E6%8C%BA%E7%8D%A8%E7%AB%8B%E5%9C%98</t>
   </si>
   <si>
-    <t>葉挺獨立團</t>
+    <t>叶挺独立团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%B7%A5%E5%86%9C%E7%BA%A2%E5%86%9B</t>
@@ -2039,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B1%9F%E7%B8%B1%E9%9A%8A%E6%B8%AF%E4%B9%9D%E5%A4%A7%E9%9A%8A</t>
   </si>
   <si>
-    <t>東江縱隊港九大隊</t>
+    <t>东江纵队港九大队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%BC%E5%B4%96%E7%BA%B5%E9%98%9F</t>
@@ -2387,7 +2387,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%B0%88%E6%A1%88%E7%B5%84</t>
   </si>
   <si>
-    <t>中央專案組</t>
+    <t>中央专案组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E5%9C%B0%E6%96%B9%E7%97%85%E9%98%B2%E6%B2%BB%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
@@ -8852,7 +8852,7 @@
         <v>400</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -12738,7 +12738,7 @@
         <v>290</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -16218,7 +16218,7 @@
         <v>18</v>
       </c>
       <c r="G458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -16276,7 +16276,7 @@
         <v>796</v>
       </c>
       <c r="G460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
